--- a/biology/Botanique/George_Suttor/George_Suttor.xlsx
+++ b/biology/Botanique/George_Suttor/George_Suttor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Suttor (Chelsea, 11 juin 1774-Bathurst, 5 mai 1859) est un botaniste et agronome britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un jardinier, il apprend la botanique avec lui. C'est par la lecture du journal de voyage de James Cook et de Joseph Banks qu'il décide de partir s'établir en Nouvelle-Galles du Sud. Il remet alors à Banks un lot de graines et de spécimen en échange d'un aller gratuit.
 Il quitte ainsi l'Angleterre avec sa femme le 17 mars 1800 et arrive à Sydney le 5 novembre 1800. Le couple s'installe à Baulkham Hills. Suttor y devient un important exploitant d'agrumes et d'olives.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Culture of the Grape-Vine and the Orange in Australia and New Zealand (1843)
 Memoirs Historical and Scientific of the Right Honourable Sir Joseph Banks (1855)</t>
@@ -576,7 +592,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Un parc de Baulkham Hills porte son nom.</t>
         </is>
